--- a/data/pca/factorExposure/factorExposure_2013-02-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-27.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002664915854815451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002053067164951287</v>
+      </c>
+      <c r="C2">
+        <v>-0.03143194594305532</v>
+      </c>
+      <c r="D2">
+        <v>0.002217438939943206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001819256111563833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006170437336812351</v>
+      </c>
+      <c r="C4">
+        <v>-0.08498538352354648</v>
+      </c>
+      <c r="D4">
+        <v>0.07904778625514278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0006254618631085221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01367359754052051</v>
+      </c>
+      <c r="C6">
+        <v>-0.1120522801893944</v>
+      </c>
+      <c r="D6">
+        <v>0.03226220127536503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001478460383190328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004832896095743387</v>
+      </c>
+      <c r="C7">
+        <v>-0.05700862497231559</v>
+      </c>
+      <c r="D7">
+        <v>0.03288233972745681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004430122363815944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005716894545305658</v>
+      </c>
+      <c r="C8">
+        <v>-0.03906367907610125</v>
+      </c>
+      <c r="D8">
+        <v>0.0432066450375907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004066896919099014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004271848564706455</v>
+      </c>
+      <c r="C9">
+        <v>-0.07122882839316209</v>
+      </c>
+      <c r="D9">
+        <v>0.06879216989425189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004258996877081138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005386759440213193</v>
+      </c>
+      <c r="C10">
+        <v>-0.05816918174602174</v>
+      </c>
+      <c r="D10">
+        <v>-0.1996462795319761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002568214897710063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005436358609276831</v>
+      </c>
+      <c r="C11">
+        <v>-0.08081687635526673</v>
+      </c>
+      <c r="D11">
+        <v>0.05935643835823814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004885160130321988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004070909991164684</v>
+      </c>
+      <c r="C12">
+        <v>-0.0647710079602766</v>
+      </c>
+      <c r="D12">
+        <v>0.04471995753266054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003272131853679519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008634524114973029</v>
+      </c>
+      <c r="C13">
+        <v>-0.06696181626151962</v>
+      </c>
+      <c r="D13">
+        <v>0.06685619159993166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001268170305614576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001572409815507453</v>
+      </c>
+      <c r="C14">
+        <v>-0.04666969595242008</v>
+      </c>
+      <c r="D14">
+        <v>0.007666406229703574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008977444692825135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006013644341945769</v>
+      </c>
+      <c r="C15">
+        <v>-0.04363889755835122</v>
+      </c>
+      <c r="D15">
+        <v>0.02956005102889172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001156272613425518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005016663975770011</v>
+      </c>
+      <c r="C16">
+        <v>-0.06645531467543761</v>
+      </c>
+      <c r="D16">
+        <v>0.04479132946250861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001309219387419308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008785932561257166</v>
+      </c>
+      <c r="C20">
+        <v>-0.06678652630404368</v>
+      </c>
+      <c r="D20">
+        <v>0.04477033914738873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005192784026952822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009780942907157751</v>
+      </c>
+      <c r="C21">
+        <v>-0.0231896202963538</v>
+      </c>
+      <c r="D21">
+        <v>0.03245093481586737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01777818453526162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006832507116084065</v>
+      </c>
+      <c r="C22">
+        <v>-0.09560780364249492</v>
+      </c>
+      <c r="D22">
+        <v>0.0984393311527428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01809044088662938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006652786671105807</v>
+      </c>
+      <c r="C23">
+        <v>-0.09640030797514418</v>
+      </c>
+      <c r="D23">
+        <v>0.09857257428536002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001823326704974125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005093317624374884</v>
+      </c>
+      <c r="C24">
+        <v>-0.07588146806215587</v>
+      </c>
+      <c r="D24">
+        <v>0.05720045509596129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003820000957055598</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002812537307872179</v>
+      </c>
+      <c r="C25">
+        <v>-0.07787599115746707</v>
+      </c>
+      <c r="D25">
+        <v>0.06475851639094564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005552615970797499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003525661351903138</v>
+      </c>
+      <c r="C26">
+        <v>-0.04184645405343747</v>
+      </c>
+      <c r="D26">
+        <v>0.02405748096286241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004010198737724802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001074853853521267</v>
+      </c>
+      <c r="C28">
+        <v>-0.1058367198368471</v>
+      </c>
+      <c r="D28">
+        <v>-0.3193579775036861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009436533289181871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003057923759569233</v>
+      </c>
+      <c r="C29">
+        <v>-0.04923737935165863</v>
+      </c>
+      <c r="D29">
+        <v>0.00237387352900261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00317928226070646</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009030648750600386</v>
+      </c>
+      <c r="C30">
+        <v>-0.1443175707508204</v>
+      </c>
+      <c r="D30">
+        <v>0.1005086782697869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001075297061968744</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00616000245119322</v>
+      </c>
+      <c r="C31">
+        <v>-0.04580834187590344</v>
+      </c>
+      <c r="D31">
+        <v>0.03199146153454904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001672463959437933</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003917471022040184</v>
+      </c>
+      <c r="C32">
+        <v>-0.04152324564095584</v>
+      </c>
+      <c r="D32">
+        <v>0.01932448900150265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002875892298935759</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008137807783410052</v>
+      </c>
+      <c r="C33">
+        <v>-0.08738961523737139</v>
+      </c>
+      <c r="D33">
+        <v>0.06809143323782926</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004198148201680189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003919846250470919</v>
+      </c>
+      <c r="C34">
+        <v>-0.05847918367017119</v>
+      </c>
+      <c r="D34">
+        <v>0.05064038711586003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002250841633371576</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004860969366683692</v>
+      </c>
+      <c r="C35">
+        <v>-0.03979183961292699</v>
+      </c>
+      <c r="D35">
+        <v>0.01338305211852713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004016482723490805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001329387896609712</v>
+      </c>
+      <c r="C36">
+        <v>-0.02456474995742364</v>
+      </c>
+      <c r="D36">
+        <v>0.02175307776987371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00263362178261729</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009426000196857272</v>
+      </c>
+      <c r="C38">
+        <v>-0.03377001775145414</v>
+      </c>
+      <c r="D38">
+        <v>0.01665555540603095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01228154591431087</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0008284366402362112</v>
+      </c>
+      <c r="C39">
+        <v>-0.1175543805403072</v>
+      </c>
+      <c r="D39">
+        <v>0.07176233119270446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009081596374217585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002124031730639232</v>
+      </c>
+      <c r="C40">
+        <v>-0.0881937759377829</v>
+      </c>
+      <c r="D40">
+        <v>0.01547522831090467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002907614719415241</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007249181702556699</v>
+      </c>
+      <c r="C41">
+        <v>-0.0384625768037893</v>
+      </c>
+      <c r="D41">
+        <v>0.03502966302430059</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003023905194281639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003633851893166851</v>
+      </c>
+      <c r="C43">
+        <v>-0.05212750843815013</v>
+      </c>
+      <c r="D43">
+        <v>0.02311397681258268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003037145809329815</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003087984265729124</v>
+      </c>
+      <c r="C44">
+        <v>-0.1115120253547397</v>
+      </c>
+      <c r="D44">
+        <v>0.06850501158524376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001415666059935275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002277157310402808</v>
+      </c>
+      <c r="C46">
+        <v>-0.0340884116380124</v>
+      </c>
+      <c r="D46">
+        <v>0.02987151226255457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002486119657800073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002658370201374352</v>
+      </c>
+      <c r="C47">
+        <v>-0.03747250683251823</v>
+      </c>
+      <c r="D47">
+        <v>0.02476390074342661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003718436582468113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006406421208469281</v>
+      </c>
+      <c r="C48">
+        <v>-0.02918421155810486</v>
+      </c>
+      <c r="D48">
+        <v>0.03156230436375777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0132150131634063</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01492427613579821</v>
+      </c>
+      <c r="C49">
+        <v>-0.1832448106184531</v>
+      </c>
+      <c r="D49">
+        <v>0.01351437516620576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006762322310795325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003554362699344725</v>
+      </c>
+      <c r="C50">
+        <v>-0.04410283015172557</v>
+      </c>
+      <c r="D50">
+        <v>0.03550646972873391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.000603380194394675</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004388525226728764</v>
+      </c>
+      <c r="C51">
+        <v>-0.02584420608783665</v>
+      </c>
+      <c r="D51">
+        <v>0.02045131532198923</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006959906271266544</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02049708036155617</v>
+      </c>
+      <c r="C53">
+        <v>-0.1689077277356795</v>
+      </c>
+      <c r="D53">
+        <v>0.03886552798857133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001615759225141329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00863570806657518</v>
+      </c>
+      <c r="C54">
+        <v>-0.0558634296248624</v>
+      </c>
+      <c r="D54">
+        <v>0.04059973801645361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00422323062295163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009449256420313157</v>
+      </c>
+      <c r="C55">
+        <v>-0.1099084792867583</v>
+      </c>
+      <c r="D55">
+        <v>0.04590781645827196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002934907803378824</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01991300110102209</v>
+      </c>
+      <c r="C56">
+        <v>-0.1749268421359342</v>
+      </c>
+      <c r="D56">
+        <v>0.03643695316215659</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00705510251055147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01958298224182386</v>
+      </c>
+      <c r="C58">
+        <v>-0.1130286292331138</v>
+      </c>
+      <c r="D58">
+        <v>0.0465848465701437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006707372248409968</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009281448500752038</v>
+      </c>
+      <c r="C59">
+        <v>-0.160521239143739</v>
+      </c>
+      <c r="D59">
+        <v>-0.3073462478177307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004169316477092165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02316426995118334</v>
+      </c>
+      <c r="C60">
+        <v>-0.2208247479201425</v>
+      </c>
+      <c r="D60">
+        <v>0.02669202434277363</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01394240117796945</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001912583650733195</v>
+      </c>
+      <c r="C61">
+        <v>-0.09571052881169806</v>
+      </c>
+      <c r="D61">
+        <v>0.05663295680272072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1684825725181527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1444572396366104</v>
+      </c>
+      <c r="C62">
+        <v>-0.08987616268071591</v>
+      </c>
+      <c r="D62">
+        <v>0.05138156623456498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001178577797924046</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006204264117015413</v>
+      </c>
+      <c r="C63">
+        <v>-0.05665668081258854</v>
+      </c>
+      <c r="D63">
+        <v>0.02431098374441431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004858665063365726</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01493938800362686</v>
+      </c>
+      <c r="C64">
+        <v>-0.1044435259694446</v>
+      </c>
+      <c r="D64">
+        <v>0.05871956689404327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002130642440006951</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01744570512992804</v>
+      </c>
+      <c r="C65">
+        <v>-0.1200393598856681</v>
+      </c>
+      <c r="D65">
+        <v>0.01836647067469468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007134716960633975</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01275996835561356</v>
+      </c>
+      <c r="C66">
+        <v>-0.1608971049980492</v>
+      </c>
+      <c r="D66">
+        <v>0.1114977134056591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003957004374459759</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01555126841716136</v>
+      </c>
+      <c r="C67">
+        <v>-0.06503302941400872</v>
+      </c>
+      <c r="D67">
+        <v>0.02494882691727798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006216288192284513</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005554405545439147</v>
+      </c>
+      <c r="C68">
+        <v>-0.08649934857467122</v>
+      </c>
+      <c r="D68">
+        <v>-0.253562257912701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002740418058043908</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006014766290329004</v>
+      </c>
+      <c r="C69">
+        <v>-0.05019508416418504</v>
+      </c>
+      <c r="D69">
+        <v>0.0392008508886765</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002510099493061179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001799962297995809</v>
+      </c>
+      <c r="C70">
+        <v>-0.002500128340280581</v>
+      </c>
+      <c r="D70">
+        <v>0.001108149532504391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002169397688788537</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005802746046594658</v>
+      </c>
+      <c r="C71">
+        <v>-0.09650793846874536</v>
+      </c>
+      <c r="D71">
+        <v>-0.3019221612181931</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004667557096788866</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01565924591549984</v>
+      </c>
+      <c r="C72">
+        <v>-0.1526234512398205</v>
+      </c>
+      <c r="D72">
+        <v>0.02219403653134354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01229917220601815</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02935931239698123</v>
+      </c>
+      <c r="C73">
+        <v>-0.2753226347900053</v>
+      </c>
+      <c r="D73">
+        <v>0.04728824193494981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004686084580218353</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001709623775166991</v>
+      </c>
+      <c r="C74">
+        <v>-0.1058374386076267</v>
+      </c>
+      <c r="D74">
+        <v>0.03944891618207139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002296533783184362</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01087483881428734</v>
+      </c>
+      <c r="C75">
+        <v>-0.1289761899819161</v>
+      </c>
+      <c r="D75">
+        <v>0.02287961792891811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00942579214869143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02165599565655144</v>
+      </c>
+      <c r="C76">
+        <v>-0.1501505110597758</v>
+      </c>
+      <c r="D76">
+        <v>0.06740342834337956</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0006855967816902958</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02336970305069477</v>
+      </c>
+      <c r="C77">
+        <v>-0.1296282219623709</v>
+      </c>
+      <c r="D77">
+        <v>0.0511346324429443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009969955052598594</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01437836918418526</v>
+      </c>
+      <c r="C78">
+        <v>-0.09503878724479937</v>
+      </c>
+      <c r="D78">
+        <v>0.06585731734907829</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02373433317011819</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03745898683180204</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561880923645424</v>
+      </c>
+      <c r="D79">
+        <v>0.03624504297866939</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004451669400886977</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01055009823685933</v>
+      </c>
+      <c r="C80">
+        <v>-0.04309682236758037</v>
+      </c>
+      <c r="D80">
+        <v>0.02711373984106557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001060846961020403</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01500656387590914</v>
+      </c>
+      <c r="C81">
+        <v>-0.1268468561337154</v>
+      </c>
+      <c r="D81">
+        <v>0.04368230460201985</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005912737787227442</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01990073224195262</v>
+      </c>
+      <c r="C82">
+        <v>-0.1445513637379861</v>
+      </c>
+      <c r="D82">
+        <v>0.04519950417080824</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009343938089691467</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009962992997817508</v>
+      </c>
+      <c r="C83">
+        <v>-0.0566873176570773</v>
+      </c>
+      <c r="D83">
+        <v>0.05547581469615551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0136395857844981</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01163888969511575</v>
+      </c>
+      <c r="C84">
+        <v>-0.03688429018419791</v>
+      </c>
+      <c r="D84">
+        <v>-0.007222153974912678</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01470233815800845</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02803066906340942</v>
+      </c>
+      <c r="C85">
+        <v>-0.1270048700220631</v>
+      </c>
+      <c r="D85">
+        <v>0.04881210808865533</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007239102855715684</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005446507379236114</v>
+      </c>
+      <c r="C86">
+        <v>-0.04994433826508758</v>
+      </c>
+      <c r="D86">
+        <v>0.0214140774647</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00424424184082058</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01013941013040407</v>
+      </c>
+      <c r="C87">
+        <v>-0.1315814306691594</v>
+      </c>
+      <c r="D87">
+        <v>0.06475821494316956</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01288400852823487</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002950627414776183</v>
+      </c>
+      <c r="C88">
+        <v>-0.06749511006677687</v>
+      </c>
+      <c r="D88">
+        <v>0.01042961059375892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01440189201283314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001754684353386987</v>
+      </c>
+      <c r="C89">
+        <v>-0.1444576328738784</v>
+      </c>
+      <c r="D89">
+        <v>-0.3455812400511221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002396176402488917</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006610918219658922</v>
+      </c>
+      <c r="C90">
+        <v>-0.1215053989350983</v>
+      </c>
+      <c r="D90">
+        <v>-0.3267793324316813</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001315647633341998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01040200139744595</v>
+      </c>
+      <c r="C91">
+        <v>-0.1028673449960401</v>
+      </c>
+      <c r="D91">
+        <v>0.02391362580023818</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008525968389473003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0005026089869773897</v>
+      </c>
+      <c r="C92">
+        <v>-0.1343122517667266</v>
+      </c>
+      <c r="D92">
+        <v>-0.3363546924629055</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001889538819251007</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00456158233021881</v>
+      </c>
+      <c r="C93">
+        <v>-0.1035909978483768</v>
+      </c>
+      <c r="D93">
+        <v>-0.3115806171058625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004228346445415295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02237700327776319</v>
+      </c>
+      <c r="C94">
+        <v>-0.1505514850219851</v>
+      </c>
+      <c r="D94">
+        <v>0.050715792662753</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.00532412414441031</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01634832824071201</v>
+      </c>
+      <c r="C95">
+        <v>-0.1271295462439548</v>
+      </c>
+      <c r="D95">
+        <v>0.06558789094968925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001797700468155787</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03531771990553819</v>
+      </c>
+      <c r="C97">
+        <v>-0.2098680019858551</v>
+      </c>
+      <c r="D97">
+        <v>-0.009213620021742639</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004123809548064776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0362825742761975</v>
+      </c>
+      <c r="C98">
+        <v>-0.2471584766017121</v>
+      </c>
+      <c r="D98">
+        <v>0.0484950400422836</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838139685461916</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9824845766410947</v>
+      </c>
+      <c r="C99">
+        <v>0.1137602479796532</v>
+      </c>
+      <c r="D99">
+        <v>-0.02822145997494759</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008511975200607854</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003093369653401163</v>
+      </c>
+      <c r="C101">
+        <v>-0.04941952776150112</v>
+      </c>
+      <c r="D101">
+        <v>0.002439455906015609</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
